--- a/Liquidity/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/Liquidity/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/Liquidity/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A628EF18-FFD8-1D4E-A96E-5D52F65BCEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7CB2E8-7614-CE40-BC2B-A41035CC2F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1453,7 +1453,7 @@
     <t>yellow</t>
   </si>
   <si>
-    <t>2007-01-01</t>
+    <t>2021-01-01</t>
   </si>
 </sst>
 </file>
@@ -1988,20 +1988,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2012,37 +2032,26 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2054,15 +2063,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2538,7 +2538,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:G20"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2681,31 +2681,31 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2715,12 +2715,12 @@
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
@@ -2731,12 +2731,12 @@
       <c r="B10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
@@ -2747,29 +2747,29 @@
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2779,12 +2779,12 @@
       <c r="B13" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
@@ -2793,12 +2793,12 @@
         <v>36</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
@@ -2809,12 +2809,12 @@
       <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
@@ -2823,13 +2823,13 @@
       <c r="B16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -2838,14 +2838,14 @@
       <c r="B17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
@@ -2854,13 +2854,13 @@
       <c r="B18" s="5">
         <v>90</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
@@ -2871,13 +2871,13 @@
         <v>49</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
@@ -2890,13 +2890,13 @@
       <c r="B20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -2909,13 +2909,13 @@
       <c r="B21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
@@ -2945,24 +2945,24 @@
         <v>59</v>
       </c>
       <c r="B23" s="24"/>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="25"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2979,13 +2979,13 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
@@ -2998,13 +2998,13 @@
       <c r="B26" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
@@ -3028,17 +3028,17 @@
       <c r="K27" s="19"/>
     </row>
     <row r="28" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="46" t="s">
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
@@ -3047,13 +3047,13 @@
       <c r="B29" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
@@ -3062,13 +3062,13 @@
       <c r="B30" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
@@ -3077,13 +3077,13 @@
       <c r="B31" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
@@ -3092,13 +3092,13 @@
       <c r="B32" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
@@ -3107,23 +3107,23 @@
       <c r="B33" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="31" t="s">
@@ -3132,13 +3132,13 @@
       <c r="B35" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="31" t="s">
@@ -3147,13 +3147,13 @@
       <c r="B36" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
@@ -3162,13 +3162,13 @@
       <c r="B37" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
@@ -3177,13 +3177,13 @@
       <c r="B38" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
@@ -3192,13 +3192,13 @@
       <c r="B39" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
@@ -3207,13 +3207,13 @@
       <c r="B40" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="31" t="s">
@@ -3222,13 +3222,13 @@
       <c r="B41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="31" t="s">
@@ -3237,13 +3237,13 @@
       <c r="B42" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
@@ -3252,13 +3252,13 @@
       <c r="B43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
@@ -3267,56 +3267,56 @@
       <c r="B44" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="C41:G41"/>
     <mergeCell ref="C42:G42"/>
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3580,154 +3580,154 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="58" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
       <c r="H7" s="10"/>
-      <c r="K7" s="59" t="s">
+      <c r="K7" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="62"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="62"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="10"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="59"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="32"/>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="59"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="62"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="59"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
     </row>
     <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -3736,74 +3736,74 @@
       <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
       <c r="H11" s="10"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="59"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="62"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="62"/>
     </row>
     <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="10"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="62"/>
+      <c r="AF12" s="62"/>
+      <c r="AG12" s="62"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
@@ -3812,74 +3812,74 @@
       <c r="B13" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="62"/>
+      <c r="AE13" s="62"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="59"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
@@ -3888,35 +3888,35 @@
       <c r="B15" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="59"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
@@ -3925,36 +3925,36 @@
       <c r="B16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
-      <c r="AG16" s="59"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
@@ -3963,108 +3963,108 @@
       <c r="B17" s="5">
         <v>20</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="59"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="62"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="62"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="59"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="59"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
@@ -4073,369 +4073,369 @@
       <c r="B20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="59"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
         <v>59</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
     </row>
     <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="46" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="62"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="62"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
         <v>69</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="59"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
         <v>71</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="62"/>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="62"/>
     </row>
     <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="62" t="s">
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="I25" s="62"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="62"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
         <v>75</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="59"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="62"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="62"/>
+      <c r="AE26" s="62"/>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="62"/>
     </row>
     <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="59"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
         <v>80</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="59"/>
-      <c r="AG28" s="59"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="62"/>
+      <c r="AA28" s="62"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="62"/>
+      <c r="AD28" s="62"/>
+      <c r="AE28" s="62"/>
+      <c r="AF28" s="62"/>
+      <c r="AG28" s="62"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
         <v>82</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="59"/>
-      <c r="AG29" s="59"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="62"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="62"/>
+      <c r="AD29" s="62"/>
+      <c r="AE29" s="62"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="62"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="31" t="s">
@@ -4444,38 +4444,38 @@
       <c r="B30" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="59"/>
-      <c r="AF30" s="59"/>
-      <c r="AG30" s="59"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
+      <c r="AA30" s="62"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="62"/>
+      <c r="AD30" s="62"/>
+      <c r="AE30" s="62"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="62"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
@@ -4484,74 +4484,74 @@
       <c r="B31" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="59"/>
-      <c r="AF31" s="59"/>
-      <c r="AG31" s="59"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="62"/>
+      <c r="AB31" s="62"/>
+      <c r="AC31" s="62"/>
+      <c r="AD31" s="62"/>
+      <c r="AE31" s="62"/>
+      <c r="AF31" s="62"/>
+      <c r="AG31" s="62"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
         <v>88</v>
       </c>
       <c r="B32" s="34"/>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="59"/>
-      <c r="AF32" s="59"/>
-      <c r="AG32" s="59"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="62"/>
+      <c r="AB32" s="62"/>
+      <c r="AC32" s="62"/>
+      <c r="AD32" s="62"/>
+      <c r="AE32" s="62"/>
+      <c r="AF32" s="62"/>
+      <c r="AG32" s="62"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
@@ -4560,36 +4560,36 @@
       <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="59"/>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="59"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="62"/>
+      <c r="AB33" s="62"/>
+      <c r="AC33" s="62"/>
+      <c r="AD33" s="62"/>
+      <c r="AE33" s="62"/>
+      <c r="AF33" s="62"/>
+      <c r="AG33" s="62"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
@@ -4598,257 +4598,239 @@
       <c r="B34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="59"/>
-      <c r="AF34" s="59"/>
-      <c r="AG34" s="59"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="62"/>
+      <c r="AA34" s="62"/>
+      <c r="AB34" s="62"/>
+      <c r="AC34" s="62"/>
+      <c r="AD34" s="62"/>
+      <c r="AE34" s="62"/>
+      <c r="AF34" s="62"/>
+      <c r="AG34" s="62"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="59"/>
-      <c r="AF35" s="59"/>
-      <c r="AG35" s="59"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="62"/>
+      <c r="AB35" s="62"/>
+      <c r="AC35" s="62"/>
+      <c r="AD35" s="62"/>
+      <c r="AE35" s="62"/>
+      <c r="AF35" s="62"/>
+      <c r="AG35" s="62"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="59"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="59"/>
-      <c r="AE36" s="59"/>
-      <c r="AF36" s="59"/>
-      <c r="AG36" s="59"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="62"/>
+      <c r="AA36" s="62"/>
+      <c r="AB36" s="62"/>
+      <c r="AC36" s="62"/>
+      <c r="AD36" s="62"/>
+      <c r="AE36" s="62"/>
+      <c r="AF36" s="62"/>
+      <c r="AG36" s="62"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="59"/>
-      <c r="AB37" s="59"/>
-      <c r="AC37" s="59"/>
-      <c r="AD37" s="59"/>
-      <c r="AE37" s="59"/>
-      <c r="AF37" s="59"/>
-      <c r="AG37" s="59"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
+      <c r="T37" s="62"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="62"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="62"/>
+      <c r="Z37" s="62"/>
+      <c r="AA37" s="62"/>
+      <c r="AB37" s="62"/>
+      <c r="AC37" s="62"/>
+      <c r="AD37" s="62"/>
+      <c r="AE37" s="62"/>
+      <c r="AF37" s="62"/>
+      <c r="AG37" s="62"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="59"/>
-      <c r="AE38" s="59"/>
-      <c r="AF38" s="59"/>
-      <c r="AG38" s="59"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="62"/>
+      <c r="T38" s="62"/>
+      <c r="U38" s="62"/>
+      <c r="V38" s="62"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="62"/>
+      <c r="Z38" s="62"/>
+      <c r="AA38" s="62"/>
+      <c r="AB38" s="62"/>
+      <c r="AC38" s="62"/>
+      <c r="AD38" s="62"/>
+      <c r="AE38" s="62"/>
+      <c r="AF38" s="62"/>
+      <c r="AG38" s="62"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="59"/>
-      <c r="AF39" s="59"/>
-      <c r="AG39" s="59"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="62"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="62"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
+      <c r="AD39" s="62"/>
+      <c r="AE39" s="62"/>
+      <c r="AF39" s="62"/>
+      <c r="AG39" s="62"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="59"/>
-      <c r="AF40" s="59"/>
-      <c r="AG40" s="59"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="62"/>
+      <c r="T40" s="62"/>
+      <c r="U40" s="62"/>
+      <c r="V40" s="62"/>
+      <c r="W40" s="62"/>
+      <c r="X40" s="62"/>
+      <c r="Y40" s="62"/>
+      <c r="Z40" s="62"/>
+      <c r="AA40" s="62"/>
+      <c r="AB40" s="62"/>
+      <c r="AC40" s="62"/>
+      <c r="AD40" s="62"/>
+      <c r="AE40" s="62"/>
+      <c r="AF40" s="62"/>
+      <c r="AG40" s="62"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
-      <c r="U41" s="59"/>
-      <c r="V41" s="59"/>
-      <c r="W41" s="59"/>
-      <c r="X41" s="59"/>
-      <c r="Y41" s="59"/>
-      <c r="Z41" s="59"/>
-      <c r="AA41" s="59"/>
-      <c r="AB41" s="59"/>
-      <c r="AC41" s="59"/>
-      <c r="AD41" s="59"/>
-      <c r="AE41" s="59"/>
-      <c r="AF41" s="59"/>
-      <c r="AG41" s="59"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="62"/>
+      <c r="T41" s="62"/>
+      <c r="U41" s="62"/>
+      <c r="V41" s="62"/>
+      <c r="W41" s="62"/>
+      <c r="X41" s="62"/>
+      <c r="Y41" s="62"/>
+      <c r="Z41" s="62"/>
+      <c r="AA41" s="62"/>
+      <c r="AB41" s="62"/>
+      <c r="AC41" s="62"/>
+      <c r="AD41" s="62"/>
+      <c r="AE41" s="62"/>
+      <c r="AF41" s="62"/>
+      <c r="AG41" s="62"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="59"/>
-      <c r="W42" s="59"/>
-      <c r="X42" s="59"/>
-      <c r="Y42" s="59"/>
-      <c r="Z42" s="59"/>
-      <c r="AA42" s="59"/>
-      <c r="AB42" s="59"/>
-      <c r="AC42" s="59"/>
-      <c r="AD42" s="59"/>
-      <c r="AE42" s="59"/>
-      <c r="AF42" s="59"/>
-      <c r="AG42" s="59"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
+      <c r="S42" s="62"/>
+      <c r="T42" s="62"/>
+      <c r="U42" s="62"/>
+      <c r="V42" s="62"/>
+      <c r="W42" s="62"/>
+      <c r="X42" s="62"/>
+      <c r="Y42" s="62"/>
+      <c r="Z42" s="62"/>
+      <c r="AA42" s="62"/>
+      <c r="AB42" s="62"/>
+      <c r="AC42" s="62"/>
+      <c r="AD42" s="62"/>
+      <c r="AE42" s="62"/>
+      <c r="AF42" s="62"/>
+      <c r="AG42" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="K7:AG42"/>
@@ -4865,6 +4847,24 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H25:I31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/Liquidity/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/Liquidity/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/Liquidity/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7CB2E8-7614-CE40-BC2B-A41035CC2F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC60488-B6F7-AD4E-A909-5EE84431AE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1453,7 +1453,7 @@
     <t>yellow</t>
   </si>
   <si>
-    <t>2021-01-01</t>
+    <t>2009-01-01</t>
   </si>
 </sst>
 </file>
@@ -1988,40 +1988,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2032,26 +2012,37 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2063,6 +2054,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2538,7 +2538,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2681,31 +2681,31 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="44" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2715,12 +2715,12 @@
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
@@ -2731,12 +2731,12 @@
       <c r="B10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
@@ -2747,29 +2747,29 @@
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="38" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2779,12 +2779,12 @@
       <c r="B13" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
@@ -2793,12 +2793,12 @@
         <v>36</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
@@ -2809,12 +2809,12 @@
       <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
@@ -2823,13 +2823,13 @@
       <c r="B16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -2838,14 +2838,14 @@
       <c r="B17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
@@ -2854,13 +2854,13 @@
       <c r="B18" s="5">
         <v>90</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
@@ -2871,13 +2871,13 @@
         <v>49</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
@@ -2890,13 +2890,13 @@
       <c r="B20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -2909,13 +2909,13 @@
       <c r="B21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
@@ -2945,24 +2945,24 @@
         <v>59</v>
       </c>
       <c r="B23" s="24"/>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="25"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2979,13 +2979,13 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
@@ -2998,13 +2998,13 @@
       <c r="B26" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
@@ -3028,17 +3028,17 @@
       <c r="K27" s="19"/>
     </row>
     <row r="28" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="38" t="s">
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
@@ -3047,13 +3047,13 @@
       <c r="B29" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
@@ -3062,13 +3062,13 @@
       <c r="B30" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
@@ -3077,13 +3077,13 @@
       <c r="B31" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
@@ -3092,13 +3092,13 @@
       <c r="B32" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
@@ -3107,23 +3107,23 @@
       <c r="B33" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
     </row>
     <row r="34" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="31" t="s">
@@ -3132,13 +3132,13 @@
       <c r="B35" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="31" t="s">
@@ -3147,13 +3147,13 @@
       <c r="B36" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
@@ -3162,13 +3162,13 @@
       <c r="B37" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
@@ -3177,13 +3177,13 @@
       <c r="B38" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
@@ -3192,13 +3192,13 @@
       <c r="B39" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
@@ -3207,13 +3207,13 @@
       <c r="B40" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="31" t="s">
@@ -3222,13 +3222,13 @@
       <c r="B41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="31" t="s">
@@ -3237,13 +3237,13 @@
       <c r="B42" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
@@ -3252,13 +3252,13 @@
       <c r="B43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
@@ -3267,56 +3267,56 @@
       <c r="B44" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="C13:F13"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3580,154 +3580,154 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="61" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="10"/>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="59"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="44" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="10"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="62"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="62"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="32"/>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="62"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="59"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="59"/>
     </row>
     <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -3736,74 +3736,74 @@
       <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="10"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="62"/>
-      <c r="AF11" s="62"/>
-      <c r="AG11" s="62"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="59"/>
     </row>
     <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="38" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="10"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
-      <c r="AD12" s="62"/>
-      <c r="AE12" s="62"/>
-      <c r="AF12" s="62"/>
-      <c r="AG12" s="62"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
@@ -3812,74 +3812,74 @@
       <c r="B13" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="62"/>
-      <c r="AE13" s="62"/>
-      <c r="AF13" s="62"/>
-      <c r="AG13" s="62"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="59"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="59"/>
+      <c r="AG14" s="59"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
@@ -3888,35 +3888,35 @@
       <c r="B15" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="62"/>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="62"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="59"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
@@ -3925,36 +3925,36 @@
       <c r="B16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="62"/>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="62"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
+      <c r="AG16" s="59"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
@@ -3963,108 +3963,108 @@
       <c r="B17" s="5">
         <v>20</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="62"/>
-      <c r="AD17" s="62"/>
-      <c r="AE17" s="62"/>
-      <c r="AF17" s="62"/>
-      <c r="AG17" s="62"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="59"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="62"/>
-      <c r="AD18" s="62"/>
-      <c r="AE18" s="62"/>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="62"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="59"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="62"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="59"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
@@ -4073,369 +4073,369 @@
       <c r="B20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="59"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
         <v>59</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="62"/>
-      <c r="AD21" s="62"/>
-      <c r="AE21" s="62"/>
-      <c r="AF21" s="62"/>
-      <c r="AG21" s="62"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="59"/>
     </row>
     <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="38" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="62"/>
-      <c r="AD22" s="62"/>
-      <c r="AE22" s="62"/>
-      <c r="AF22" s="62"/>
-      <c r="AG22" s="62"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="59"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
         <v>69</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="62"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="62"/>
-      <c r="AF23" s="62"/>
-      <c r="AG23" s="62"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="59"/>
+      <c r="AG23" s="59"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
         <v>71</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="62"/>
-      <c r="W24" s="62"/>
-      <c r="X24" s="62"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="62"/>
-      <c r="AA24" s="62"/>
-      <c r="AB24" s="62"/>
-      <c r="AC24" s="62"/>
-      <c r="AD24" s="62"/>
-      <c r="AE24" s="62"/>
-      <c r="AF24" s="62"/>
-      <c r="AG24" s="62"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="59"/>
     </row>
     <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="59" t="s">
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="I25" s="59"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="62"/>
-      <c r="AA25" s="62"/>
-      <c r="AB25" s="62"/>
-      <c r="AC25" s="62"/>
-      <c r="AD25" s="62"/>
-      <c r="AE25" s="62"/>
-      <c r="AF25" s="62"/>
-      <c r="AG25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="59"/>
+      <c r="AG25" s="59"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
         <v>75</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="62"/>
-      <c r="AA26" s="62"/>
-      <c r="AB26" s="62"/>
-      <c r="AC26" s="62"/>
-      <c r="AD26" s="62"/>
-      <c r="AE26" s="62"/>
-      <c r="AF26" s="62"/>
-      <c r="AG26" s="62"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="59"/>
     </row>
     <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="62"/>
-      <c r="AB27" s="62"/>
-      <c r="AC27" s="62"/>
-      <c r="AD27" s="62"/>
-      <c r="AE27" s="62"/>
-      <c r="AF27" s="62"/>
-      <c r="AG27" s="62"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="59"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="59"/>
+      <c r="AG27" s="59"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
         <v>80</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
-      <c r="T28" s="62"/>
-      <c r="U28" s="62"/>
-      <c r="V28" s="62"/>
-      <c r="W28" s="62"/>
-      <c r="X28" s="62"/>
-      <c r="Y28" s="62"/>
-      <c r="Z28" s="62"/>
-      <c r="AA28" s="62"/>
-      <c r="AB28" s="62"/>
-      <c r="AC28" s="62"/>
-      <c r="AD28" s="62"/>
-      <c r="AE28" s="62"/>
-      <c r="AF28" s="62"/>
-      <c r="AG28" s="62"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="59"/>
+      <c r="AG28" s="59"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
         <v>82</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="62"/>
-      <c r="W29" s="62"/>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="62"/>
-      <c r="AA29" s="62"/>
-      <c r="AB29" s="62"/>
-      <c r="AC29" s="62"/>
-      <c r="AD29" s="62"/>
-      <c r="AE29" s="62"/>
-      <c r="AF29" s="62"/>
-      <c r="AG29" s="62"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="59"/>
+      <c r="AE29" s="59"/>
+      <c r="AF29" s="59"/>
+      <c r="AG29" s="59"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="31" t="s">
@@ -4444,38 +4444,38 @@
       <c r="B30" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
-      <c r="AB30" s="62"/>
-      <c r="AC30" s="62"/>
-      <c r="AD30" s="62"/>
-      <c r="AE30" s="62"/>
-      <c r="AF30" s="62"/>
-      <c r="AG30" s="62"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="59"/>
+      <c r="AF30" s="59"/>
+      <c r="AG30" s="59"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
@@ -4484,74 +4484,74 @@
       <c r="B31" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="62"/>
-      <c r="AB31" s="62"/>
-      <c r="AC31" s="62"/>
-      <c r="AD31" s="62"/>
-      <c r="AE31" s="62"/>
-      <c r="AF31" s="62"/>
-      <c r="AG31" s="62"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="59"/>
+      <c r="AE31" s="59"/>
+      <c r="AF31" s="59"/>
+      <c r="AG31" s="59"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
         <v>88</v>
       </c>
       <c r="B32" s="34"/>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="62"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="62"/>
-      <c r="AA32" s="62"/>
-      <c r="AB32" s="62"/>
-      <c r="AC32" s="62"/>
-      <c r="AD32" s="62"/>
-      <c r="AE32" s="62"/>
-      <c r="AF32" s="62"/>
-      <c r="AG32" s="62"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="59"/>
+      <c r="AF32" s="59"/>
+      <c r="AG32" s="59"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
@@ -4560,36 +4560,36 @@
       <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="62"/>
-      <c r="AB33" s="62"/>
-      <c r="AC33" s="62"/>
-      <c r="AD33" s="62"/>
-      <c r="AE33" s="62"/>
-      <c r="AF33" s="62"/>
-      <c r="AG33" s="62"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="59"/>
+      <c r="AG33" s="59"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
@@ -4598,239 +4598,257 @@
       <c r="B34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
-      <c r="W34" s="62"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="62"/>
-      <c r="AA34" s="62"/>
-      <c r="AB34" s="62"/>
-      <c r="AC34" s="62"/>
-      <c r="AD34" s="62"/>
-      <c r="AE34" s="62"/>
-      <c r="AF34" s="62"/>
-      <c r="AG34" s="62"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="59"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="62"/>
-      <c r="AA35" s="62"/>
-      <c r="AB35" s="62"/>
-      <c r="AC35" s="62"/>
-      <c r="AD35" s="62"/>
-      <c r="AE35" s="62"/>
-      <c r="AF35" s="62"/>
-      <c r="AG35" s="62"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="59"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="62"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="62"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
-      <c r="AC36" s="62"/>
-      <c r="AD36" s="62"/>
-      <c r="AE36" s="62"/>
-      <c r="AF36" s="62"/>
-      <c r="AG36" s="62"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="59"/>
+      <c r="AF36" s="59"/>
+      <c r="AG36" s="59"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
-      <c r="AC37" s="62"/>
-      <c r="AD37" s="62"/>
-      <c r="AE37" s="62"/>
-      <c r="AF37" s="62"/>
-      <c r="AG37" s="62"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59"/>
+      <c r="AF37" s="59"/>
+      <c r="AG37" s="59"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="62"/>
-      <c r="AB38" s="62"/>
-      <c r="AC38" s="62"/>
-      <c r="AD38" s="62"/>
-      <c r="AE38" s="62"/>
-      <c r="AF38" s="62"/>
-      <c r="AG38" s="62"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59"/>
+      <c r="AF38" s="59"/>
+      <c r="AG38" s="59"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="62"/>
-      <c r="T39" s="62"/>
-      <c r="U39" s="62"/>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
-      <c r="AD39" s="62"/>
-      <c r="AE39" s="62"/>
-      <c r="AF39" s="62"/>
-      <c r="AG39" s="62"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="59"/>
+      <c r="AF39" s="59"/>
+      <c r="AG39" s="59"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="62"/>
-      <c r="T40" s="62"/>
-      <c r="U40" s="62"/>
-      <c r="V40" s="62"/>
-      <c r="W40" s="62"/>
-      <c r="X40" s="62"/>
-      <c r="Y40" s="62"/>
-      <c r="Z40" s="62"/>
-      <c r="AA40" s="62"/>
-      <c r="AB40" s="62"/>
-      <c r="AC40" s="62"/>
-      <c r="AD40" s="62"/>
-      <c r="AE40" s="62"/>
-      <c r="AF40" s="62"/>
-      <c r="AG40" s="62"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59"/>
+      <c r="AF40" s="59"/>
+      <c r="AG40" s="59"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="62"/>
-      <c r="T41" s="62"/>
-      <c r="U41" s="62"/>
-      <c r="V41" s="62"/>
-      <c r="W41" s="62"/>
-      <c r="X41" s="62"/>
-      <c r="Y41" s="62"/>
-      <c r="Z41" s="62"/>
-      <c r="AA41" s="62"/>
-      <c r="AB41" s="62"/>
-      <c r="AC41" s="62"/>
-      <c r="AD41" s="62"/>
-      <c r="AE41" s="62"/>
-      <c r="AF41" s="62"/>
-      <c r="AG41" s="62"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="59"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="59"/>
+      <c r="Y41" s="59"/>
+      <c r="Z41" s="59"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="59"/>
+      <c r="AF41" s="59"/>
+      <c r="AG41" s="59"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="62"/>
-      <c r="S42" s="62"/>
-      <c r="T42" s="62"/>
-      <c r="U42" s="62"/>
-      <c r="V42" s="62"/>
-      <c r="W42" s="62"/>
-      <c r="X42" s="62"/>
-      <c r="Y42" s="62"/>
-      <c r="Z42" s="62"/>
-      <c r="AA42" s="62"/>
-      <c r="AB42" s="62"/>
-      <c r="AC42" s="62"/>
-      <c r="AD42" s="62"/>
-      <c r="AE42" s="62"/>
-      <c r="AF42" s="62"/>
-      <c r="AG42" s="62"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="59"/>
+      <c r="Z42" s="59"/>
+      <c r="AA42" s="59"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="59"/>
+      <c r="AD42" s="59"/>
+      <c r="AE42" s="59"/>
+      <c r="AF42" s="59"/>
+      <c r="AG42" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="K7:AG42"/>
@@ -4847,24 +4865,6 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H25:I31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/Liquidity/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/Liquidity/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/Liquidity/NetLiquidity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OtherCat\Documents\Code\Bootleg_Macro\Liquidity\NetLiquidity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC60488-B6F7-AD4E-A909-5EE84431AE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1752666-7F97-4CB3-9374-3E5BE686CF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="308">
   <si>
     <t>Index</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>BTC-USD</t>
   </si>
   <si>
     <t>yfinance</t>
@@ -1453,14 +1450,20 @@
     <t>yellow</t>
   </si>
   <si>
-    <t>2009-01-01</t>
+    <t>SPX,INDEX</t>
+  </si>
+  <si>
+    <t>TLT,NASDAQ</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1988,20 +1991,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2012,37 +2035,26 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2054,15 +2066,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2538,23 +2541,23 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C16" sqref="C16:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
     <col min="9" max="9" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="30.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2591,70 +2594,70 @@
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="H2" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="H3" s="8">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H4" s="8">
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2668,7 +2671,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2680,256 +2683,256 @@
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A7" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39" t="s">
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="C9" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+        <v>131</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="A11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+    </row>
+    <row r="12" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A12" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-    </row>
-    <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46" t="s">
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="B13" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="B16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="B17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="B18" s="5">
         <v>90</v>
       </c>
-      <c r="C18" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
+      <c r="C18" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>57</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>58</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2940,29 +2943,29 @@
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="18.75" customHeight="1">
       <c r="A23" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
+    <row r="24" spans="1:11" ht="24" customHeight="1">
+      <c r="A24" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="25"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2972,47 +2975,47 @@
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
     </row>
-    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="19.5" customHeight="1">
       <c r="A25" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="C25" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="19.5" customHeight="1">
       <c r="A26" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="19.5" customHeight="1">
       <c r="A27" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>9</v>
@@ -3027,296 +3030,296 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51" t="s">
+    <row r="28" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A28" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="46" t="s">
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="B29" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="41" t="s">
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+      <c r="B30" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="41" t="s">
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
+      <c r="B31" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="41" t="s">
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
+      <c r="B32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="41" t="s">
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+      <c r="B33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="41" t="s">
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+    </row>
+    <row r="34" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A34" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-    </row>
-    <row r="34" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="52" t="s">
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="31" t="s">
+      <c r="B35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="53" t="s">
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="s">
+      <c r="B36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="46" t="s">
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="B37" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
-        <v>86</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="31" t="s">
+      <c r="B39" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="46" t="s">
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
+      <c r="B40" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="46" t="s">
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="31" t="s">
+      <c r="B41" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="46" t="s">
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="31" t="s">
         <v>93</v>
-      </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="31" t="s">
-        <v>94</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="31" t="s">
         <v>95</v>
-      </c>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="31" t="s">
-        <v>96</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="31" t="s">
+      <c r="B44" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="C41:G41"/>
     <mergeCell ref="C42:G42"/>
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3421,19 +3424,19 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="26.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3459,81 +3462,81 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="H2" s="8">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="8">
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="H4" s="8">
         <v>730</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3542,1313 +3545,1295 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="H5" s="8">
         <v>1460</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:33" ht="27.75" customHeight="1">
+      <c r="A7" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="10"/>
+      <c r="K7" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="58" t="s">
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="62"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="62"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="10"/>
-      <c r="K7" s="59" t="s">
+      <c r="B8" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="10"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="59"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" s="11"/>
       <c r="B9" s="32"/>
-      <c r="C9" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="C9" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="59"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="62"/>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="C10" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="59"/>
-    </row>
-    <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
+    </row>
+    <row r="11" spans="1:33" ht="18.75">
       <c r="A11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="10"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="62"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="62"/>
+    </row>
+    <row r="12" spans="1:33" ht="21">
+      <c r="A12" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="10"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="62"/>
+      <c r="AF12" s="62"/>
+      <c r="AG12" s="62"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="10"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="59"/>
-    </row>
-    <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="10"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="62"/>
+      <c r="AE13" s="62"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="59"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="59"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="B16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
-      <c r="AG16" s="59"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="5">
         <v>20</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="62"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="62"/>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="A20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
+    </row>
+    <row r="22" spans="1:33" ht="30" customHeight="1">
+      <c r="A22" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="59"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="59"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="59"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="59"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
-    </row>
-    <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="46" t="s">
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="62"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="62"/>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="A24" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="62"/>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="62"/>
+    </row>
+    <row r="25" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A25" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="59"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
-    </row>
-    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="41" t="s">
+      <c r="I25" s="59"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="62"/>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="A26" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="62" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="62"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="62"/>
+      <c r="AE26" s="62"/>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="62"/>
+    </row>
+    <row r="27" spans="1:33" ht="26.25" customHeight="1">
+      <c r="A27" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="I25" s="62"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="59"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="59"/>
-    </row>
-    <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="59"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="53" t="s">
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="62"/>
+      <c r="AA28" s="62"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="62"/>
+      <c r="AD28" s="62"/>
+      <c r="AE28" s="62"/>
+      <c r="AF28" s="62"/>
+      <c r="AG28" s="62"/>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="A29" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="59"/>
-      <c r="AG28" s="59"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="46" t="s">
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="62"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="62"/>
+      <c r="AD29" s="62"/>
+      <c r="AE29" s="62"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="62"/>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="A30" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="59"/>
-      <c r="AG29" s="59"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="B30" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
+      <c r="AA30" s="62"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="62"/>
+      <c r="AD30" s="62"/>
+      <c r="AE30" s="62"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="62"/>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="A31" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="59"/>
-      <c r="AF30" s="59"/>
-      <c r="AG30" s="59"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
-        <v>86</v>
       </c>
       <c r="B31" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="62"/>
+      <c r="AB31" s="62"/>
+      <c r="AC31" s="62"/>
+      <c r="AD31" s="62"/>
+      <c r="AE31" s="62"/>
+      <c r="AF31" s="62"/>
+      <c r="AG31" s="62"/>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="A32" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="59"/>
-      <c r="AF31" s="59"/>
-      <c r="AG31" s="59"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="B32" s="34"/>
-      <c r="C32" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="59"/>
-      <c r="AF32" s="59"/>
-      <c r="AG32" s="59"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="C32" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="62"/>
+      <c r="AB32" s="62"/>
+      <c r="AC32" s="62"/>
+      <c r="AD32" s="62"/>
+      <c r="AE32" s="62"/>
+      <c r="AF32" s="62"/>
+      <c r="AG32" s="62"/>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="46" t="s">
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="62"/>
+      <c r="AB33" s="62"/>
+      <c r="AC33" s="62"/>
+      <c r="AD33" s="62"/>
+      <c r="AE33" s="62"/>
+      <c r="AF33" s="62"/>
+      <c r="AG33" s="62"/>
+    </row>
+    <row r="34" spans="1:33">
+      <c r="A34" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="59"/>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="59"/>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
+      <c r="B34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="59"/>
-      <c r="AF34" s="59"/>
-      <c r="AG34" s="59"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="59"/>
-      <c r="AF35" s="59"/>
-      <c r="AG35" s="59"/>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="59"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="59"/>
-      <c r="AE36" s="59"/>
-      <c r="AF36" s="59"/>
-      <c r="AG36" s="59"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="59"/>
-      <c r="AB37" s="59"/>
-      <c r="AC37" s="59"/>
-      <c r="AD37" s="59"/>
-      <c r="AE37" s="59"/>
-      <c r="AF37" s="59"/>
-      <c r="AG37" s="59"/>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="59"/>
-      <c r="AE38" s="59"/>
-      <c r="AF38" s="59"/>
-      <c r="AG38" s="59"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="59"/>
-      <c r="AF39" s="59"/>
-      <c r="AG39" s="59"/>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="59"/>
-      <c r="AF40" s="59"/>
-      <c r="AG40" s="59"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
-      <c r="U41" s="59"/>
-      <c r="V41" s="59"/>
-      <c r="W41" s="59"/>
-      <c r="X41" s="59"/>
-      <c r="Y41" s="59"/>
-      <c r="Z41" s="59"/>
-      <c r="AA41" s="59"/>
-      <c r="AB41" s="59"/>
-      <c r="AC41" s="59"/>
-      <c r="AD41" s="59"/>
-      <c r="AE41" s="59"/>
-      <c r="AF41" s="59"/>
-      <c r="AG41" s="59"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="59"/>
-      <c r="W42" s="59"/>
-      <c r="X42" s="59"/>
-      <c r="Y42" s="59"/>
-      <c r="Z42" s="59"/>
-      <c r="AA42" s="59"/>
-      <c r="AB42" s="59"/>
-      <c r="AC42" s="59"/>
-      <c r="AD42" s="59"/>
-      <c r="AE42" s="59"/>
-      <c r="AF42" s="59"/>
-      <c r="AG42" s="59"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="62"/>
+      <c r="AA34" s="62"/>
+      <c r="AB34" s="62"/>
+      <c r="AC34" s="62"/>
+      <c r="AD34" s="62"/>
+      <c r="AE34" s="62"/>
+      <c r="AF34" s="62"/>
+      <c r="AG34" s="62"/>
+    </row>
+    <row r="35" spans="1:33">
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="62"/>
+      <c r="AB35" s="62"/>
+      <c r="AC35" s="62"/>
+      <c r="AD35" s="62"/>
+      <c r="AE35" s="62"/>
+      <c r="AF35" s="62"/>
+      <c r="AG35" s="62"/>
+    </row>
+    <row r="36" spans="1:33">
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="62"/>
+      <c r="AA36" s="62"/>
+      <c r="AB36" s="62"/>
+      <c r="AC36" s="62"/>
+      <c r="AD36" s="62"/>
+      <c r="AE36" s="62"/>
+      <c r="AF36" s="62"/>
+      <c r="AG36" s="62"/>
+    </row>
+    <row r="37" spans="1:33">
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
+      <c r="T37" s="62"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="62"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="62"/>
+      <c r="Z37" s="62"/>
+      <c r="AA37" s="62"/>
+      <c r="AB37" s="62"/>
+      <c r="AC37" s="62"/>
+      <c r="AD37" s="62"/>
+      <c r="AE37" s="62"/>
+      <c r="AF37" s="62"/>
+      <c r="AG37" s="62"/>
+    </row>
+    <row r="38" spans="1:33">
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="62"/>
+      <c r="T38" s="62"/>
+      <c r="U38" s="62"/>
+      <c r="V38" s="62"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="62"/>
+      <c r="Z38" s="62"/>
+      <c r="AA38" s="62"/>
+      <c r="AB38" s="62"/>
+      <c r="AC38" s="62"/>
+      <c r="AD38" s="62"/>
+      <c r="AE38" s="62"/>
+      <c r="AF38" s="62"/>
+      <c r="AG38" s="62"/>
+    </row>
+    <row r="39" spans="1:33">
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="62"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="62"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
+      <c r="AD39" s="62"/>
+      <c r="AE39" s="62"/>
+      <c r="AF39" s="62"/>
+      <c r="AG39" s="62"/>
+    </row>
+    <row r="40" spans="1:33">
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="62"/>
+      <c r="T40" s="62"/>
+      <c r="U40" s="62"/>
+      <c r="V40" s="62"/>
+      <c r="W40" s="62"/>
+      <c r="X40" s="62"/>
+      <c r="Y40" s="62"/>
+      <c r="Z40" s="62"/>
+      <c r="AA40" s="62"/>
+      <c r="AB40" s="62"/>
+      <c r="AC40" s="62"/>
+      <c r="AD40" s="62"/>
+      <c r="AE40" s="62"/>
+      <c r="AF40" s="62"/>
+      <c r="AG40" s="62"/>
+    </row>
+    <row r="41" spans="1:33">
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="62"/>
+      <c r="T41" s="62"/>
+      <c r="U41" s="62"/>
+      <c r="V41" s="62"/>
+      <c r="W41" s="62"/>
+      <c r="X41" s="62"/>
+      <c r="Y41" s="62"/>
+      <c r="Z41" s="62"/>
+      <c r="AA41" s="62"/>
+      <c r="AB41" s="62"/>
+      <c r="AC41" s="62"/>
+      <c r="AD41" s="62"/>
+      <c r="AE41" s="62"/>
+      <c r="AF41" s="62"/>
+      <c r="AG41" s="62"/>
+    </row>
+    <row r="42" spans="1:33">
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
+      <c r="S42" s="62"/>
+      <c r="T42" s="62"/>
+      <c r="U42" s="62"/>
+      <c r="V42" s="62"/>
+      <c r="W42" s="62"/>
+      <c r="X42" s="62"/>
+      <c r="Y42" s="62"/>
+      <c r="Z42" s="62"/>
+      <c r="AA42" s="62"/>
+      <c r="AB42" s="62"/>
+      <c r="AC42" s="62"/>
+      <c r="AD42" s="62"/>
+      <c r="AE42" s="62"/>
+      <c r="AF42" s="62"/>
+      <c r="AG42" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="K7:AG42"/>
@@ -4865,6 +4850,24 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H25:I31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -4887,897 +4890,897 @@
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="9" max="9" width="21.5" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" customWidth="1"/>
+    <col min="12" max="12" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="4:12">
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
     </row>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:12">
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="36" t="s">
+      <c r="J3" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="K3" t="s">
         <v>131</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="4:12">
+      <c r="I4" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="L3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I4" s="36" t="s">
+      <c r="J4" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="K4" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
         <v>134</v>
       </c>
-      <c r="K4" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
+    </row>
+    <row r="5" spans="4:12">
+      <c r="I5" s="36" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I5" s="36" t="s">
+      <c r="J5" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="J5" s="35" t="s">
+    </row>
+    <row r="6" spans="4:12">
+      <c r="I6" s="36" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I6" s="36" t="s">
+      <c r="J6" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="J6" s="35" t="s">
+    </row>
+    <row r="7" spans="4:12">
+      <c r="I7" s="36" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I7" s="36" t="s">
+      <c r="J7" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12">
+      <c r="I8" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="J7" s="35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I8" s="36" t="s">
+      <c r="J8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12">
+      <c r="I9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="J8" s="35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I9" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="35" t="s">
+    </row>
+    <row r="10" spans="4:12">
+      <c r="I10" s="36" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I10" s="36" t="s">
+      <c r="J10" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="J10" s="36" t="s">
+    </row>
+    <row r="11" spans="4:12">
+      <c r="I11" s="36" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I11" s="36" t="s">
+      <c r="J11" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="J11" s="36" t="s">
+    </row>
+    <row r="12" spans="4:12">
+      <c r="I12" s="36" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I12" s="36" t="s">
+      <c r="J12" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="J12" s="36" t="s">
+    </row>
+    <row r="13" spans="4:12">
+      <c r="I13" s="36" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I13" s="36" t="s">
+      <c r="J13" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="J13" s="36" t="s">
+    </row>
+    <row r="14" spans="4:12">
+      <c r="I14" s="36" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I14" s="36" t="s">
+      <c r="J14" s="36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12">
+      <c r="I15" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="J14" s="36" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I15" s="36" t="s">
+      <c r="J15" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="J15" s="36" t="s">
+    </row>
+    <row r="16" spans="4:12">
+      <c r="I16" s="36" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I16" s="36" t="s">
+      <c r="J16" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="J16" s="36" t="s">
+    </row>
+    <row r="17" spans="9:10">
+      <c r="I17" s="36" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I17" s="36" t="s">
+      <c r="J17" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="36" t="s">
+    </row>
+    <row r="18" spans="9:10">
+      <c r="I18" s="36" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I18" s="36" t="s">
+      <c r="J18" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="J18" s="36" t="s">
+    </row>
+    <row r="19" spans="9:10">
+      <c r="I19" s="36" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I19" s="36" t="s">
+      <c r="J19" s="36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10">
+      <c r="I20" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="J19" s="36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I20" s="36" t="s">
+      <c r="J20" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="J20" s="36" t="s">
+    </row>
+    <row r="21" spans="9:10">
+      <c r="I21" s="36" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="21" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I21" s="36" t="s">
+      <c r="J21" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="J21" s="36" t="s">
+    </row>
+    <row r="22" spans="9:10">
+      <c r="I22" s="36" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="22" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I22" s="36" t="s">
+      <c r="J22" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="J22" s="36" t="s">
+    </row>
+    <row r="23" spans="9:10">
+      <c r="I23" s="36" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="23" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I23" s="36" t="s">
+      <c r="J23" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="J23" s="36" t="s">
+    </row>
+    <row r="24" spans="9:10">
+      <c r="I24" s="36" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I24" s="36" t="s">
+      <c r="J24" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="J24" s="36" t="s">
+    </row>
+    <row r="25" spans="9:10">
+      <c r="I25" s="36" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I25" s="36" t="s">
+      <c r="J25" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="J25" s="36" t="s">
+    </row>
+    <row r="26" spans="9:10">
+      <c r="I26" s="36" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="26" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I26" s="36" t="s">
+      <c r="J26" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="J26" s="36" t="s">
+    </row>
+    <row r="27" spans="9:10">
+      <c r="I27" s="36" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="27" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I27" s="36" t="s">
+      <c r="J27" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="J27" s="36" t="s">
+    </row>
+    <row r="28" spans="9:10">
+      <c r="I28" s="36" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="28" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I28" s="36" t="s">
+      <c r="J28" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="J28" s="36" t="s">
+    </row>
+    <row r="29" spans="9:10">
+      <c r="I29" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="36" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I29" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="J29" s="36" t="s">
+    <row r="30" spans="9:10">
+      <c r="I30" s="36" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="30" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I30" s="36" t="s">
+      <c r="J30" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="J30" s="36" t="s">
+    </row>
+    <row r="31" spans="9:10">
+      <c r="I31" s="36" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="31" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I31" s="36" t="s">
+      <c r="J31" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="J31" s="36" t="s">
+    </row>
+    <row r="32" spans="9:10">
+      <c r="I32" s="36" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="32" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I32" s="36" t="s">
+      <c r="J32" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="J32" s="36" t="s">
+    </row>
+    <row r="33" spans="9:10">
+      <c r="I33" s="36" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I33" s="36" t="s">
+      <c r="J33" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="J33" s="36" t="s">
+    </row>
+    <row r="34" spans="9:10">
+      <c r="I34" s="36" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I34" s="36" t="s">
+      <c r="J34" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="J34" s="36" t="s">
+    </row>
+    <row r="35" spans="9:10">
+      <c r="I35" s="36" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I35" s="36" t="s">
+      <c r="J35" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="J35" s="36" t="s">
+    </row>
+    <row r="36" spans="9:10">
+      <c r="I36" s="36" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I36" s="36" t="s">
+      <c r="J36" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="J36" s="36" t="s">
+    </row>
+    <row r="37" spans="9:10">
+      <c r="I37" s="36" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I37" s="36" t="s">
+      <c r="J37" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="J37" s="36" t="s">
+    </row>
+    <row r="38" spans="9:10">
+      <c r="I38" s="36" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I38" s="36" t="s">
+      <c r="J38" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="J38" s="36" t="s">
+    </row>
+    <row r="39" spans="9:10">
+      <c r="I39" s="36" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I39" s="36" t="s">
+      <c r="J39" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="J39" s="36" t="s">
+    </row>
+    <row r="40" spans="9:10">
+      <c r="I40" s="36" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I40" s="36" t="s">
+    <row r="41" spans="9:10">
+      <c r="I41" s="36" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I41" s="36" t="s">
+    <row r="42" spans="9:10">
+      <c r="I42" s="36" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I42" s="36" t="s">
+    <row r="43" spans="9:10">
+      <c r="I43" s="36" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I43" s="36" t="s">
+    <row r="44" spans="9:10">
+      <c r="I44" s="36" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I44" s="36" t="s">
+    <row r="45" spans="9:10">
+      <c r="I45" s="36" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I45" s="36" t="s">
+    <row r="46" spans="9:10">
+      <c r="I46" s="36" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I46" s="36" t="s">
+    <row r="47" spans="9:10">
+      <c r="I47" s="36" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I47" s="36" t="s">
+    <row r="48" spans="9:10">
+      <c r="I48" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9">
+      <c r="I49" s="36" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I48" s="36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I49" s="36" t="s">
+    <row r="50" spans="9:9">
+      <c r="I50" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9">
+      <c r="I51" s="36" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I50" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="36" t="s">
+    <row r="52" spans="9:9">
+      <c r="I52" s="36" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I52" s="36" t="s">
+    <row r="53" spans="9:9">
+      <c r="I53" s="36" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I53" s="36" t="s">
+    <row r="54" spans="9:9">
+      <c r="I54" s="36" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I54" s="36" t="s">
+    <row r="55" spans="9:9">
+      <c r="I55" s="36" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I55" s="36" t="s">
+    <row r="56" spans="9:9">
+      <c r="I56" s="36" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I56" s="36" t="s">
+    <row r="57" spans="9:9">
+      <c r="I57" s="36" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I57" s="36" t="s">
+    <row r="58" spans="9:9">
+      <c r="I58" s="36" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I58" s="36" t="s">
+    <row r="59" spans="9:9">
+      <c r="I59" s="36" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I59" s="36" t="s">
+    <row r="60" spans="9:9">
+      <c r="I60" s="36" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I60" s="36" t="s">
+    <row r="61" spans="9:9">
+      <c r="I61" s="36" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I61" s="36" t="s">
+    <row r="62" spans="9:9">
+      <c r="I62" s="36" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I62" s="36" t="s">
+    <row r="63" spans="9:9">
+      <c r="I63" s="36" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I63" s="36" t="s">
+    <row r="64" spans="9:9">
+      <c r="I64" s="36" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I64" s="36" t="s">
+    <row r="65" spans="9:9">
+      <c r="I65" s="36" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I65" s="36" t="s">
+    <row r="66" spans="9:9">
+      <c r="I66" s="36" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I66" s="36" t="s">
+    <row r="67" spans="9:9">
+      <c r="I67" s="36" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I67" s="36" t="s">
+    <row r="68" spans="9:9">
+      <c r="I68" s="36" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I68" s="36" t="s">
+    <row r="69" spans="9:9">
+      <c r="I69" s="36" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I69" s="36" t="s">
+    <row r="70" spans="9:9">
+      <c r="I70" s="36" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I70" s="36" t="s">
+    <row r="71" spans="9:9">
+      <c r="I71" s="36" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I71" s="36" t="s">
+    <row r="72" spans="9:9">
+      <c r="I72" s="36" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I72" s="36" t="s">
+    <row r="73" spans="9:9">
+      <c r="I73" s="36" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I73" s="36" t="s">
+    <row r="74" spans="9:9">
+      <c r="I74" s="36" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I74" s="36" t="s">
+    <row r="75" spans="9:9">
+      <c r="I75" s="36" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I75" s="36" t="s">
+    <row r="76" spans="9:9">
+      <c r="I76" s="36" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I76" s="36" t="s">
+    <row r="77" spans="9:9">
+      <c r="I77" s="36" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I77" s="36" t="s">
+    <row r="78" spans="9:9">
+      <c r="I78" s="36" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I78" s="36" t="s">
+    <row r="79" spans="9:9">
+      <c r="I79" s="36" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I79" s="36" t="s">
+    <row r="80" spans="9:9">
+      <c r="I80" s="36" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I80" s="36" t="s">
+    <row r="81" spans="9:9">
+      <c r="I81" s="36" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I81" s="36" t="s">
+    <row r="82" spans="9:9">
+      <c r="I82" s="36" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I82" s="36" t="s">
+    <row r="83" spans="9:9">
+      <c r="I83" s="36" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I83" s="36" t="s">
+    <row r="84" spans="9:9">
+      <c r="I84" s="36" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I84" s="36" t="s">
+    <row r="85" spans="9:9">
+      <c r="I85" s="36" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I85" s="36" t="s">
+    <row r="86" spans="9:9">
+      <c r="I86" s="36" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I86" s="36" t="s">
+    <row r="87" spans="9:9">
+      <c r="I87" s="36" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I87" s="36" t="s">
+    <row r="88" spans="9:9">
+      <c r="I88" s="36" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I88" s="36" t="s">
+    <row r="89" spans="9:9">
+      <c r="I89" s="36" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I89" s="36" t="s">
+    <row r="90" spans="9:9">
+      <c r="I90" s="36" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I90" s="36" t="s">
+    <row r="91" spans="9:9">
+      <c r="I91" s="36" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I91" s="36" t="s">
+    <row r="92" spans="9:9">
+      <c r="I92" s="36" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I92" s="36" t="s">
+    <row r="93" spans="9:9">
+      <c r="I93" s="36" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I93" s="36" t="s">
+    <row r="94" spans="9:9">
+      <c r="I94" s="36" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I94" s="36" t="s">
+    <row r="95" spans="9:9">
+      <c r="I95" s="36" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I95" s="36" t="s">
+    <row r="96" spans="9:9">
+      <c r="I96" s="36" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I96" s="36" t="s">
+    <row r="97" spans="9:9">
+      <c r="I97" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="9:9">
+      <c r="I98" s="36" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I97" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I98" s="36" t="s">
+    <row r="99" spans="9:9">
+      <c r="I99" s="36" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I99" s="36" t="s">
+    <row r="100" spans="9:9">
+      <c r="I100" s="36" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I100" s="36" t="s">
+    <row r="101" spans="9:9">
+      <c r="I101" s="36" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I101" s="36" t="s">
+    <row r="102" spans="9:9">
+      <c r="I102" s="36" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I102" s="36" t="s">
+    <row r="103" spans="9:9">
+      <c r="I103" s="36" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I103" s="36" t="s">
+    <row r="104" spans="9:9">
+      <c r="I104" s="36" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I104" s="36" t="s">
+    <row r="105" spans="9:9">
+      <c r="I105" s="36" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I105" s="36" t="s">
+    <row r="106" spans="9:9">
+      <c r="I106" s="36" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I106" s="36" t="s">
+    <row r="107" spans="9:9">
+      <c r="I107" s="36" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I107" s="36" t="s">
+    <row r="108" spans="9:9">
+      <c r="I108" s="36" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I108" s="36" t="s">
+    <row r="109" spans="9:9">
+      <c r="I109" s="36" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I109" s="36" t="s">
+    <row r="110" spans="9:9">
+      <c r="I110" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="9:9">
+      <c r="I111" s="36" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I110" s="36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I111" s="36" t="s">
+    <row r="112" spans="9:9">
+      <c r="I112" s="36" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I112" s="36" t="s">
+    <row r="113" spans="9:9">
+      <c r="I113" s="36" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I113" s="36" t="s">
+    <row r="114" spans="9:9">
+      <c r="I114" s="36" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I114" s="36" t="s">
+    <row r="115" spans="9:9">
+      <c r="I115" s="36" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I115" s="36" t="s">
+    <row r="116" spans="9:9">
+      <c r="I116" s="36" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I116" s="36" t="s">
+    <row r="117" spans="9:9">
+      <c r="I117" s="36" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I117" s="36" t="s">
+    <row r="118" spans="9:9">
+      <c r="I118" s="36" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I118" s="36" t="s">
+    <row r="119" spans="9:9">
+      <c r="I119" s="36" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I119" s="36" t="s">
+    <row r="120" spans="9:9">
+      <c r="I120" s="36" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I120" s="36" t="s">
+    <row r="121" spans="9:9">
+      <c r="I121" s="36" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I121" s="36" t="s">
+    <row r="122" spans="9:9">
+      <c r="I122" s="36" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I122" s="36" t="s">
+    <row r="123" spans="9:9">
+      <c r="I123" s="36" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I123" s="36" t="s">
+    <row r="124" spans="9:9">
+      <c r="I124" s="36" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I124" s="36" t="s">
+    <row r="125" spans="9:9">
+      <c r="I125" s="36" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I125" s="36" t="s">
+    <row r="126" spans="9:9">
+      <c r="I126" s="36" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I126" s="36" t="s">
+    <row r="127" spans="9:9">
+      <c r="I127" s="36" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I127" s="36" t="s">
+    <row r="128" spans="9:9">
+      <c r="I128" s="36" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I128" s="36" t="s">
+    <row r="129" spans="9:9">
+      <c r="I129" s="36" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I129" s="36" t="s">
+    <row r="130" spans="9:9">
+      <c r="I130" s="36" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I130" s="36" t="s">
+    <row r="131" spans="9:9">
+      <c r="I131" s="36" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I131" s="36" t="s">
+    <row r="132" spans="9:9">
+      <c r="I132" s="36" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I132" s="36" t="s">
+    <row r="133" spans="9:9">
+      <c r="I133" s="36" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I133" s="36" t="s">
+    <row r="134" spans="9:9">
+      <c r="I134" s="36" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I134" s="36" t="s">
+    <row r="135" spans="9:9">
+      <c r="I135" s="36" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I135" s="36" t="s">
+    <row r="136" spans="9:9">
+      <c r="I136" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="9:9">
+      <c r="I137" s="36" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I136" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I137" s="36" t="s">
+    <row r="138" spans="9:9">
+      <c r="I138" s="36" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I138" s="36" t="s">
+    <row r="139" spans="9:9">
+      <c r="I139" s="36" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I139" s="36" t="s">
+    <row r="140" spans="9:9">
+      <c r="I140" s="36" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I140" s="36" t="s">
+    <row r="141" spans="9:9">
+      <c r="I141" s="36" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I141" s="36" t="s">
+    <row r="142" spans="9:9">
+      <c r="I142" s="36" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I142" s="36" t="s">
+    <row r="143" spans="9:9">
+      <c r="I143" s="36" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I143" s="36" t="s">
+    <row r="144" spans="9:9">
+      <c r="I144" s="36" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I144" s="36" t="s">
+    <row r="145" spans="9:9">
+      <c r="I145" s="36" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I145" s="36" t="s">
+    <row r="146" spans="9:9">
+      <c r="I146" s="36" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I146" s="36" t="s">
+    <row r="147" spans="9:9">
+      <c r="I147" s="36" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I147" s="36" t="s">
+    <row r="148" spans="9:9">
+      <c r="I148" s="36" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I148" s="36" t="s">
+    <row r="149" spans="9:9">
+      <c r="I149" s="36" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I149" s="36" t="s">
+    <row r="150" spans="9:9">
+      <c r="I150" s="36" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I150" s="36" t="s">
-        <v>305</v>
       </c>
     </row>
   </sheetData>
